--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Malicious-URL-Detector\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yogeshseenichamy/Documents/Projects/Malicious URL Classifier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{412E74CA-0FDD-452C-9171-4077A3E7183F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ABB28E-92CB-3B4C-840F-3A9C2F62E0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1110" windowWidth="29040" windowHeight="15840" xr2:uid="{A77313DE-E372-4E7E-9A90-EC207872DEBC}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{A77313DE-E372-4E7E-9A90-EC207872DEBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,10 +81,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFD5D5D5"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -447,37 +448,37 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -492,44 +493,80 @@
       <c r="E2">
         <v>0.98592599999999997</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>0.99296499999999999</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>0.97898600000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>0.1273</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>0.123741</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>0.97289300000000001</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>0.972746</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>0.98513799999999996</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>0.96066300000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B4">
+        <v>0.66969999999999996</v>
+      </c>
+      <c r="C4">
+        <v>0.75886200000000004</v>
+      </c>
+      <c r="D4">
+        <v>0.50299700000000003</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B5">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>6.5610000000000002E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.98509100000000005</v>
+      </c>
+      <c r="E5">
+        <v>0.98510699999999995</v>
+      </c>
+      <c r="F5">
+        <v>0.99109400000000003</v>
+      </c>
+      <c r="G5">
+        <v>0.97919299999999998</v>
       </c>
     </row>
   </sheetData>
